--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB2EAE0F-FE47-AE46-B869-57ED09FC4C34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7AB867-001C-314B-9433-8E9013288BB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="2620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
+    <workbookView xWindow="43180" yWindow="2620" windowWidth="28040" windowHeight="17440" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" r:id="rId1"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC94B45A-5C9C-9040-811B-66ACEE541C36}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7AB867-001C-314B-9433-8E9013288BB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F1C903-A8DB-CB4A-B1F0-9099890FD1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43180" yWindow="2620" windowWidth="28040" windowHeight="17440" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
+    <workbookView xWindow="3060" yWindow="1140" windowWidth="21140" windowHeight="13020" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" r:id="rId1"/>
@@ -594,14 +594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1031,7 +1032,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F1C903-A8DB-CB4A-B1F0-9099890FD1B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A81EB4-40E9-7D41-A701-CB6A5769A68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1140" windowWidth="21140" windowHeight="13020" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
+    <workbookView xWindow="49460" yWindow="4120" windowWidth="21140" windowHeight="13020" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>https://www.1point3acres.com/bbs/thread-474814-1-1.html</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/124941/Square-or-Phone-screen-or-Search-cats</t>
   </si>
 </sst>
 </file>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,6 +606,7 @@
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -719,6 +723,9 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,6 +1029,7 @@
     <hyperlink ref="E32" r:id="rId30" xr:uid="{0C9003D1-9D25-884D-9FF5-CF461CF4FE4A}"/>
     <hyperlink ref="E33" r:id="rId31" xr:uid="{84793C77-29D2-1E4D-9FF1-924F8440D482}"/>
     <hyperlink ref="E34" r:id="rId32" xr:uid="{1AB93B2E-37E5-D049-8AED-666B68D44AD4}"/>
+    <hyperlink ref="F10" r:id="rId33" xr:uid="{E67ADC5B-BBE7-714F-AE5F-B54DE9BCB6BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A81EB4-40E9-7D41-A701-CB6A5769A68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699DBED-D5A4-1445-81C4-DC9438BB8B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49460" yWindow="4120" windowWidth="21140" windowHeight="13020" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>https://leetcode.com/discuss/interview-question/124941/Square-or-Phone-screen-or-Search-cats</t>
+  </si>
+  <si>
+    <t>设计一个有限状态机，如何给出一系列操作，有限状态机返回结果</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-544516-1-1.html</t>
   </si>
 </sst>
 </file>
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,222 +634,222 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
       <c r="D19">
         <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -854,29 +860,29 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -885,31 +891,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -920,18 +926,18 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -942,7 +948,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -953,32 +959,32 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>59</v>
@@ -986,50 +992,62 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4C644855-5714-2C47-92B6-97947AD8DEA8}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{54D5695F-CCFE-C94B-99EA-4ACA6F913AD3}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{D47F1DEF-CC61-1C4B-98A4-C40DAD1AB924}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{0BA7C242-3FC4-6F41-AE68-97FED7D3F683}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{5094FBC4-4E6B-9E43-A419-DCF3BA250CA6}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{0E4CDD9B-8E56-8B42-AECB-F7AA2D708B1D}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{DCD5A6BB-8D2F-9F47-9378-1D8D7303C71F}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{951BF01F-5A13-AD46-AAC9-D2AD421632F4}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{9561B43C-B959-154D-BEB3-C528C3279E66}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{506765E6-99C8-3146-A847-4295080FE102}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{584994B8-8EDE-824F-A894-7401CDA4A622}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{7360BD5F-2FB2-8C43-A55F-6A27B634BCE6}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{DD91E242-CABD-F54E-A5D3-AC0A6882548B}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{A902259B-63C6-C849-A38C-C6E835F590F7}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{1620C6AF-3F21-E24E-9244-658E0C4F8BED}"/>
-    <hyperlink ref="E19" r:id="rId16" xr:uid="{1A7B05A2-230C-F042-8B55-BDEE737C227C}"/>
-    <hyperlink ref="E20" r:id="rId17" xr:uid="{724B9925-5B36-F64F-8FE0-25C13849915C}"/>
-    <hyperlink ref="E21" r:id="rId18" xr:uid="{508CFEE7-3A2A-064F-8E9C-4FB409767681}"/>
-    <hyperlink ref="F12" r:id="rId19" xr:uid="{BDBA02F7-B191-C043-A7D4-086FA706B1AD}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{FF6D2986-6062-E24A-902A-6F0B1C9EE0D3}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{2287950F-6D0A-AE4B-84E2-1EFEC5A77921}"/>
-    <hyperlink ref="E24" r:id="rId22" xr:uid="{DB117B26-0B97-0D4D-9C95-FC32A1F2FAD9}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{15C57F5D-1340-5343-8A17-75CB64EEEBF1}"/>
-    <hyperlink ref="E26" r:id="rId24" xr:uid="{33274BCA-BC96-374A-9FEE-2226A89B057D}"/>
-    <hyperlink ref="E27" r:id="rId25" xr:uid="{6A836430-C5B4-1241-9DCD-7A54245AC64A}"/>
-    <hyperlink ref="E28" r:id="rId26" xr:uid="{5698C8C6-A92C-C14E-9D13-513B60210F54}"/>
-    <hyperlink ref="E29" r:id="rId27" xr:uid="{7A05B16D-D5A4-AE4A-9A83-69C6C37E5031}"/>
-    <hyperlink ref="E30" r:id="rId28" xr:uid="{36BD90BE-BCEF-C64C-9D77-3D8FF9E2606D}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{3AC28045-9E07-FF43-AEC7-605FEF6F52B8}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{0C9003D1-9D25-884D-9FF5-CF461CF4FE4A}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{84793C77-29D2-1E4D-9FF1-924F8440D482}"/>
-    <hyperlink ref="E34" r:id="rId32" xr:uid="{1AB93B2E-37E5-D049-8AED-666B68D44AD4}"/>
-    <hyperlink ref="F10" r:id="rId33" xr:uid="{E67ADC5B-BBE7-714F-AE5F-B54DE9BCB6BD}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{4C644855-5714-2C47-92B6-97947AD8DEA8}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{54D5695F-CCFE-C94B-99EA-4ACA6F913AD3}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{D47F1DEF-CC61-1C4B-98A4-C40DAD1AB924}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{0BA7C242-3FC4-6F41-AE68-97FED7D3F683}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{5094FBC4-4E6B-9E43-A419-DCF3BA250CA6}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{0E4CDD9B-8E56-8B42-AECB-F7AA2D708B1D}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{DCD5A6BB-8D2F-9F47-9378-1D8D7303C71F}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{951BF01F-5A13-AD46-AAC9-D2AD421632F4}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{9561B43C-B959-154D-BEB3-C528C3279E66}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{506765E6-99C8-3146-A847-4295080FE102}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{584994B8-8EDE-824F-A894-7401CDA4A622}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{7360BD5F-2FB2-8C43-A55F-6A27B634BCE6}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{DD91E242-CABD-F54E-A5D3-AC0A6882548B}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{A902259B-63C6-C849-A38C-C6E835F590F7}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{1620C6AF-3F21-E24E-9244-658E0C4F8BED}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{1A7B05A2-230C-F042-8B55-BDEE737C227C}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{724B9925-5B36-F64F-8FE0-25C13849915C}"/>
+    <hyperlink ref="E22" r:id="rId18" xr:uid="{508CFEE7-3A2A-064F-8E9C-4FB409767681}"/>
+    <hyperlink ref="F13" r:id="rId19" xr:uid="{BDBA02F7-B191-C043-A7D4-086FA706B1AD}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{FF6D2986-6062-E24A-902A-6F0B1C9EE0D3}"/>
+    <hyperlink ref="E24" r:id="rId21" xr:uid="{2287950F-6D0A-AE4B-84E2-1EFEC5A77921}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{DB117B26-0B97-0D4D-9C95-FC32A1F2FAD9}"/>
+    <hyperlink ref="E26" r:id="rId23" xr:uid="{15C57F5D-1340-5343-8A17-75CB64EEEBF1}"/>
+    <hyperlink ref="E27" r:id="rId24" xr:uid="{33274BCA-BC96-374A-9FEE-2226A89B057D}"/>
+    <hyperlink ref="E28" r:id="rId25" xr:uid="{6A836430-C5B4-1241-9DCD-7A54245AC64A}"/>
+    <hyperlink ref="E29" r:id="rId26" xr:uid="{5698C8C6-A92C-C14E-9D13-513B60210F54}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{7A05B16D-D5A4-AE4A-9A83-69C6C37E5031}"/>
+    <hyperlink ref="E31" r:id="rId28" xr:uid="{36BD90BE-BCEF-C64C-9D77-3D8FF9E2606D}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{3AC28045-9E07-FF43-AEC7-605FEF6F52B8}"/>
+    <hyperlink ref="E33" r:id="rId30" xr:uid="{0C9003D1-9D25-884D-9FF5-CF461CF4FE4A}"/>
+    <hyperlink ref="E34" r:id="rId31" xr:uid="{84793C77-29D2-1E4D-9FF1-924F8440D482}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{1AB93B2E-37E5-D049-8AED-666B68D44AD4}"/>
+    <hyperlink ref="F11" r:id="rId33" xr:uid="{E67ADC5B-BBE7-714F-AE5F-B54DE9BCB6BD}"/>
+    <hyperlink ref="E2" r:id="rId34" xr:uid="{7B8A3463-F3BE-3845-94F5-973918D65765}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F699DBED-D5A4-1445-81C4-DC9438BB8B78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC8A687-EB40-4845-9CBF-D795307D3BA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49460" yWindow="4120" windowWidth="21140" windowHeight="13020" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
+    <workbookView xWindow="49460" yWindow="4120" windowWidth="21140" windowHeight="13020" activeTab="1" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
   <sheets>
     <sheet name="algorithm" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>https://www.1point3acres.com/bbs/thread-544516-1-1.html</t>
+  </si>
+  <si>
+    <t>http://blog.gainlo.co/index.php/2016/05/17/design-a-cache-system/</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1055,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC94B45A-5C9C-9040-811B-66ACEE541C36}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1069,7 @@
     <col min="1" max="1" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1097,12 +1100,16 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1A9A859A-15C1-7347-A91F-ADA002E349B6}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9740E54D-6ACA-5949-96E7-CA0D8C9D140E}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{8CAAD4BE-98DE-5F48-941D-8917F19BE220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/square/square-freq.xlsx
+++ b/company/square/square-freq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/square/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC8A687-EB40-4845-9CBF-D795307D3BA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9809C82C-DBDA-0642-A5B5-0466D8A25F40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49460" yWindow="4120" windowWidth="21140" windowHeight="13020" activeTab="1" xr2:uid="{F9ADB845-8C9D-F149-B571-2B3B2AA5D88C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>http://blog.gainlo.co/index.php/2016/05/17/design-a-cache-system/</t>
+  </si>
+  <si>
+    <t>https://www.1point3acres.com/bbs/thread-545456-1-1.html</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/125037/The-2-player-game-of-Drawdown-with-N-groups-of-stones</t>
   </si>
 </sst>
 </file>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037732BE-553C-B845-A6DA-AE12DAEB8F34}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,7 +624,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,145 +641,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -784,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -795,7 +807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1017,16 +1029,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{4C644855-5714-2C47-92B6-97947AD8DEA8}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{54D5695F-CCFE-C94B-99EA-4ACA6F913AD3}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{D47F1DEF-CC61-1C4B-98A4-C40DAD1AB924}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{0BA7C242-3FC4-6F41-AE68-97FED7D3F683}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{5094FBC4-4E6B-9E43-A419-DCF3BA250CA6}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{0E4CDD9B-8E56-8B42-AECB-F7AA2D708B1D}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{DCD5A6BB-8D2F-9F47-9378-1D8D7303C71F}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{951BF01F-5A13-AD46-AAC9-D2AD421632F4}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{9561B43C-B959-154D-BEB3-C528C3279E66}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{506765E6-99C8-3146-A847-4295080FE102}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{4C644855-5714-2C47-92B6-97947AD8DEA8}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{54D5695F-CCFE-C94B-99EA-4ACA6F913AD3}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{D47F1DEF-CC61-1C4B-98A4-C40DAD1AB924}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{0BA7C242-3FC4-6F41-AE68-97FED7D3F683}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{5094FBC4-4E6B-9E43-A419-DCF3BA250CA6}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{0E4CDD9B-8E56-8B42-AECB-F7AA2D708B1D}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{DCD5A6BB-8D2F-9F47-9378-1D8D7303C71F}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{951BF01F-5A13-AD46-AAC9-D2AD421632F4}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{9561B43C-B959-154D-BEB3-C528C3279E66}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{506765E6-99C8-3146-A847-4295080FE102}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{584994B8-8EDE-824F-A894-7401CDA4A622}"/>
     <hyperlink ref="E15" r:id="rId12" xr:uid="{7360BD5F-2FB2-8C43-A55F-6A27B634BCE6}"/>
     <hyperlink ref="E16" r:id="rId13" xr:uid="{DD91E242-CABD-F54E-A5D3-AC0A6882548B}"/>
@@ -1035,7 +1047,7 @@
     <hyperlink ref="E20" r:id="rId16" xr:uid="{1A7B05A2-230C-F042-8B55-BDEE737C227C}"/>
     <hyperlink ref="E21" r:id="rId17" xr:uid="{724B9925-5B36-F64F-8FE0-25C13849915C}"/>
     <hyperlink ref="E22" r:id="rId18" xr:uid="{508CFEE7-3A2A-064F-8E9C-4FB409767681}"/>
-    <hyperlink ref="F13" r:id="rId19" xr:uid="{BDBA02F7-B191-C043-A7D4-086FA706B1AD}"/>
+    <hyperlink ref="F2" r:id="rId19" xr:uid="{BDBA02F7-B191-C043-A7D4-086FA706B1AD}"/>
     <hyperlink ref="E23" r:id="rId20" xr:uid="{FF6D2986-6062-E24A-902A-6F0B1C9EE0D3}"/>
     <hyperlink ref="E24" r:id="rId21" xr:uid="{2287950F-6D0A-AE4B-84E2-1EFEC5A77921}"/>
     <hyperlink ref="E25" r:id="rId22" xr:uid="{DB117B26-0B97-0D4D-9C95-FC32A1F2FAD9}"/>
@@ -1049,8 +1061,10 @@
     <hyperlink ref="E33" r:id="rId30" xr:uid="{0C9003D1-9D25-884D-9FF5-CF461CF4FE4A}"/>
     <hyperlink ref="E34" r:id="rId31" xr:uid="{84793C77-29D2-1E4D-9FF1-924F8440D482}"/>
     <hyperlink ref="E35" r:id="rId32" xr:uid="{1AB93B2E-37E5-D049-8AED-666B68D44AD4}"/>
-    <hyperlink ref="F11" r:id="rId33" xr:uid="{E67ADC5B-BBE7-714F-AE5F-B54DE9BCB6BD}"/>
-    <hyperlink ref="E2" r:id="rId34" xr:uid="{7B8A3463-F3BE-3845-94F5-973918D65765}"/>
+    <hyperlink ref="F12" r:id="rId33" xr:uid="{E67ADC5B-BBE7-714F-AE5F-B54DE9BCB6BD}"/>
+    <hyperlink ref="E3" r:id="rId34" xr:uid="{7B8A3463-F3BE-3845-94F5-973918D65765}"/>
+    <hyperlink ref="G2" r:id="rId35" xr:uid="{64DD2620-3414-864D-B182-18E991C5D44C}"/>
+    <hyperlink ref="H2" r:id="rId36" xr:uid="{362534A1-F7ED-DC47-B82C-5B47E82581FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1061,7 +1075,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
